--- a/medicine/Enfance/Le_Château_de_ma_mère/Le_Château_de_ma_mère.xlsx
+++ b/medicine/Enfance/Le_Château_de_ma_mère/Le_Château_de_ma_mère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Ch%C3%A2teau_de_ma_m%C3%A8re</t>
+          <t>Le_Château_de_ma_mère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Château de ma mère est le deuxième tome des Souvenirs d'enfance, un roman autobiographique de Marcel Pagnol, paru en 1957.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Ch%C3%A2teau_de_ma_m%C3%A8re</t>
+          <t>Le_Château_de_ma_mère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">« Après l'épopée cynégétique des bartavelles, je fus d'emblée admis au rang des chasseurs, mais en qualité de rabatteur, et de chien rapporteur. Tous les matins, vers quatre heures, mon père ouvrait la porte de ma chambre, et chuchotait : « Veux-tu venir ? » »
 Ce deuxième tome est dans le prolongement chronologique de La Gloire de mon père. Les familles Pagnol et Jaubert passent toujours leurs vacances au pied du Garlaban. Le jeune Marcel Pagnol se lie d'amitié avec un jeune paysan, Lili des Bellons. Il évoque le parcours des deux garçons pour poser des pièges à oiseaux dans les collines. De leur côté, Joseph et l'oncle Jules rapportent tant de gibier qu'ils peuvent payer la location de la « Bastide Neuve ».
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Ch%C3%A2teau_de_ma_m%C3%A8re</t>
+          <t>Le_Château_de_ma_mère</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,13 +565,15 @@
           <t>Le château de la Buzine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le château évoqué par le titre porte le nom de château de la Buzine. Marcel Pagnol prétend que le propriétaire des lieux, à l'époque, était un certain Canasson, gros marchand de viande et se prétendant baron des Accates. Or le château appartenait en réalité à un officier de marine du nom de Félix Pallez[1],[2].
-En réalité, le château n'a pas « au moins dix étages[3] », comme Pagnol enfant le voyait, ni non plus « trente balcons de pierre sculptée [sur] chaque façade[4] » que Pagnol propriétaire persiste à lui attribuer. D'autre part le canal de Marseille, que les Pagnol empruntaient après la traversée de l'Huveaune à La Barasse, ne traverse pas le domaine de La Buzine, aujourd'hui « Parc des Sept Collines », ni même ne s'en approche : il oblique vers l'ouest (La Valentine)[5], alors que La Treille est au nord-est. Il ne passe d'ailleurs pas non plus au carrefour des Quatre-Saisons[6], sur lequel, selon Pagnol, ouvrait la « porte du Père Humilié[7] ».
-Un doute subsiste donc. Des passionnés ont tenté de reconstituer l'itinéraire des Pagnol, et il n'est pas avéré que la famille a effectivement traversé cette propriété[8]. Néanmoins sur la carte du projet de canal de Marseille de M. Bazin en 1832 on voit très clairement le canal passer selon le cheminement de la famille Pagnol[9]. De nombreuses dérivations ont peut-être disparu ou été ensevelies.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le château évoqué par le titre porte le nom de château de la Buzine. Marcel Pagnol prétend que le propriétaire des lieux, à l'époque, était un certain Canasson, gros marchand de viande et se prétendant baron des Accates. Or le château appartenait en réalité à un officier de marine du nom de Félix Pallez,.
+En réalité, le château n'a pas « au moins dix étages », comme Pagnol enfant le voyait, ni non plus « trente balcons de pierre sculptée [sur] chaque façade » que Pagnol propriétaire persiste à lui attribuer. D'autre part le canal de Marseille, que les Pagnol empruntaient après la traversée de l'Huveaune à La Barasse, ne traverse pas le domaine de La Buzine, aujourd'hui « Parc des Sept Collines », ni même ne s'en approche : il oblique vers l'ouest (La Valentine), alors que La Treille est au nord-est. Il ne passe d'ailleurs pas non plus au carrefour des Quatre-Saisons, sur lequel, selon Pagnol, ouvrait la « porte du Père Humilié ».
+Un doute subsiste donc. Des passionnés ont tenté de reconstituer l'itinéraire des Pagnol, et il n'est pas avéré que la famille a effectivement traversé cette propriété. Néanmoins sur la carte du projet de canal de Marseille de M. Bazin en 1832 on voit très clairement le canal passer selon le cheminement de la famille Pagnol. De nombreuses dérivations ont peut-être disparu ou été ensevelies.
 En 1941, pour réaliser son ambition de construire, sous le ciel de Provence, la Cité du Cinéma capable de rivaliser avec Hollywood, Pagnol fait l'acquisition, par téléphone et sans l'avoir vu, de ce château avec quelques hectares de prairies au bord du canal. C'est en visitant son domaine huit jours plus tard qu'il reconnaît qu'il s'agit de « l'affreux château, celui de la peur de ma mère ». Il ne parvint jamais à réaliser son projet.
-La demeure appartient actuellement à la ville de Marseille qui l'a rénovée et en a fait une « Maison des Cinématographies de la Méditerranée » de près de 4 000 m2[10].
+La demeure appartient actuellement à la ville de Marseille qui l'a rénovée et en a fait une « Maison des Cinématographies de la Méditerranée » de près de 4 000 m2.
 </t>
         </is>
       </c>
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le_Ch%C3%A2teau_de_ma_m%C3%A8re</t>
+          <t>Le_Château_de_ma_mère</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,10 +602,12 @@
           <t>Le château du comte</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un autre château est cité dans le livre de Marcel Pagnol. C'est le château du Comte, le premier des quatre châteaux traversés par la famille. Il s'agit du Château Saint-Antoine[11], et le personnage du comte a été inspiré par celui qui en était propriétaire à l'époque où se situent les souvenirs d'enfance : le commandant Guy de Robien[12].
-Le château est actuellement propriété de la Grande Loge de France qui, outre ses activités privées, y accueille des manifestations publiques culturelles (conférences) ou artistiques (festival Les Heures Bleues)[13].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un autre château est cité dans le livre de Marcel Pagnol. C'est le château du Comte, le premier des quatre châteaux traversés par la famille. Il s'agit du Château Saint-Antoine, et le personnage du comte a été inspiré par celui qui en était propriétaire à l'époque où se situent les souvenirs d'enfance : le commandant Guy de Robien.
+Le château est actuellement propriété de la Grande Loge de France qui, outre ses activités privées, y accueille des manifestations publiques culturelles (conférences) ou artistiques (festival Les Heures Bleues).
 </t>
         </is>
       </c>
@@ -600,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Le_Ch%C3%A2teau_de_ma_m%C3%A8re</t>
+          <t>Le_Château_de_ma_mère</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,7 +636,9 @@
           <t>Livre audio</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Marcel Pagnol (auteur et narrateur), Le Château de ma mère, Vincennes, Frémeaux &amp; Associés, 31 juillet 2007 (EAN 356-1-302-51742-1, BNF 41196611)Enregistrement réalisé vers le milieu des années 1960 par Marcel Pagnol à son domicile et retrouvé une trentaine d'années après sa mort. Support : 4 CD audio, durée : 4 h 16 min. Référence éditeur : FA5174.</t>
         </is>
@@ -630,7 +650,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Le_Ch%C3%A2teau_de_ma_m%C3%A8re</t>
+          <t>Le_Château_de_ma_mère</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -650,12 +670,52 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cinéma
-En 1990, Yves Robert a réalisé le diptyque La Gloire de mon père et Le Château de ma mère sur un scénario de Louis Nucera et Jérôme Tonnerre. Philippe Caubère et Nathalie Roussel incarnent les parents de Marcel (Julien Ciamaca) et Paul (Victorien Delamare). L'oncle Jules et la tante Rose sont interprétés par Didier Pain et Thérèse Liotard. Des passages du texte du roman original sont narrés par Jean-Pierre Darras.
-Grambois sert de décor pour l'ancien village de La Treille. La « Bastide Neuve » se situe dans le domaine de Pichauris à Allauch, au cœur du massif de l'Étoile et du Garlaban[14].
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1990, Yves Robert a réalisé le diptyque La Gloire de mon père et Le Château de ma mère sur un scénario de Louis Nucera et Jérôme Tonnerre. Philippe Caubère et Nathalie Roussel incarnent les parents de Marcel (Julien Ciamaca) et Paul (Victorien Delamare). L'oncle Jules et la tante Rose sont interprétés par Didier Pain et Thérèse Liotard. Des passages du texte du roman original sont narrés par Jean-Pierre Darras.
+Grambois sert de décor pour l'ancien village de La Treille. La « Bastide Neuve » se situe dans le domaine de Pichauris à Allauch, au cœur du massif de l'Étoile et du Garlaban.
 Le film évoque des passages qui ne sont pas présents dans le roman, comme la rencontre entre Marcel et la jeune Isabelle qui n'apparaît que dans Le Temps des secrets, troisième tome des Souvenirs d'enfance.
-Bande dessinée
-En 2015, Éric Stoffel, Serge Scotto et Nicolas Pagnol (le petit-fils du célèbre auteur), ont signé l'adaptation du roman en BD aux éditions Grand Angle[15].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Le_Château_de_ma_mère</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Ch%C3%A2teau_de_ma_m%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2015, Éric Stoffel, Serge Scotto et Nicolas Pagnol (le petit-fils du célèbre auteur), ont signé l'adaptation du roman en BD aux éditions Grand Angle.
 </t>
         </is>
       </c>
